--- a/raw material survey data.xlsx
+++ b/raw material survey data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon Paige\Desktop\LBJ Attribute analysis\LBJ attribute analysis repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6379DE8C-B749-4F0A-ABC6-783C5D656297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CAE311-B636-4CA8-9EC5-4769BE7F9901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="1812" windowWidth="19560" windowHeight="8724" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
+    <workbookView xWindow="2172" yWindow="1812" windowWidth="19560" windowHeight="8724" firstSheet="2" activeTab="3" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sample measurements" sheetId="2" r:id="rId3"/>
+    <sheet name="Glossary" sheetId="6" r:id="rId4"/>
+    <sheet name="Sample color measurements" sheetId="5" r:id="rId5"/>
+    <sheet name="Heat treatment exp." sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="116">
   <si>
     <t>Locality</t>
   </si>
@@ -139,12 +142,6 @@
     <t>Artifact type</t>
   </si>
   <si>
-    <t>Color measurement location</t>
-  </si>
-  <si>
-    <t>Location description</t>
-  </si>
-  <si>
     <t>Chalky</t>
   </si>
   <si>
@@ -230,16 +227,184 @@
   </si>
   <si>
     <t>3.2.23</t>
+  </si>
+  <si>
+    <t>flk</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Soak time 120</t>
+  </si>
+  <si>
+    <t>soak time 220</t>
+  </si>
+  <si>
+    <t>Soak time 320</t>
+  </si>
+  <si>
+    <t>Soak time 420</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>mass grams</t>
+  </si>
+  <si>
+    <t>Grain</t>
+  </si>
+  <si>
+    <t>Gloss</t>
+  </si>
+  <si>
+    <t>color 1</t>
+  </si>
+  <si>
+    <t>Color 1.loc</t>
+  </si>
+  <si>
+    <t>Interiormost</t>
+  </si>
+  <si>
+    <t>7.5yr5/2</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>ID description.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each id's first number is the locality sampled (1-5 were visited, but samples only collected from 2,3 and 5). </t>
+  </si>
+  <si>
+    <t>Each id's second number is the cobble number collected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the third number is the number assigned to a flake taken from that cobble, or a chunk/core remaining after reduction. </t>
+  </si>
+  <si>
+    <t>Munsell estimate</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>5y4/2</t>
+  </si>
+  <si>
+    <t>5y5/2</t>
+  </si>
+  <si>
+    <t>2.5y5/2</t>
+  </si>
+  <si>
+    <t>5yr6/1</t>
+  </si>
+  <si>
+    <t>10yr7/1</t>
+  </si>
+  <si>
+    <t>interiormost</t>
+  </si>
+  <si>
+    <t>exteriormost</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Translucency</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>5yr4/2</t>
+  </si>
+  <si>
+    <t>7.5yr6/2</t>
+  </si>
+  <si>
+    <t>Location of color samples</t>
+  </si>
+  <si>
+    <t>In taking multiple munsell estimates for each sample, I aimed to sample the extremes of the color variation by targeting the interiormost portion of the cobble the flake captured, and the exteriormost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In cases where the exterior was cortical, I sampled just inside the cortex, to sample color variation where cryptocrystaline chert began. </t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>7.5r6/2</t>
+  </si>
+  <si>
+    <t>2.5yr5/2</t>
+  </si>
+  <si>
+    <t>5yr7/2</t>
+  </si>
+  <si>
+    <t>5yr7/1</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>2.5y5/1</t>
+  </si>
+  <si>
+    <t>10yr5/2</t>
+  </si>
+  <si>
+    <t>5yr5/1</t>
+  </si>
+  <si>
+    <t>proximal</t>
+  </si>
+  <si>
+    <t>distal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in flakes where there was no difference in in the proximity to an interior across the flake, or no discernable color gradient, the general location of the color samples is described. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,11 +748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70794D5-8754-4185-8149-19A4560E35EF}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -603,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -621,7 +789,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -630,22 +798,22 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s">
-        <v>49</v>
-      </c>
       <c r="Q1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -659,13 +827,13 @@
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -674,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -683,10 +851,10 @@
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N2">
         <v>196</v>
@@ -712,16 +880,16 @@
         <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>133</v>
@@ -747,16 +915,16 @@
         <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N4">
         <v>102</v>
@@ -782,16 +950,16 @@
         <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>67.099999999999994</v>
@@ -814,16 +982,16 @@
         <v>3.1</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>88.6</v>
@@ -846,16 +1014,16 @@
         <v>3.2</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>22</v>
@@ -864,7 +1032,7 @@
         <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
@@ -891,7 +1059,7 @@
         <v>0.2</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -902,19 +1070,19 @@
         <v>3.3</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>58.2</v>
@@ -937,22 +1105,22 @@
         <v>3.4</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <v>36.5</v>
@@ -975,19 +1143,19 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N10">
         <v>118</v>
@@ -1010,19 +1178,19 @@
         <v>5.2</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>124.3</v>
@@ -1045,19 +1213,19 @@
         <v>5.3</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>140</v>
@@ -1080,19 +1248,19 @@
         <v>5.4</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>170</v>
@@ -1107,7 +1275,7 @@
         <v>1.52</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1118,19 +1286,19 @@
         <v>5.5</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>113</v>
@@ -1194,7 +1362,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1217,7 +1385,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -1232,7 +1400,7 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -1243,13 +1411,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>27</v>
@@ -1258,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -1269,13 +1437,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -1292,7 +1460,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -1308,22 +1476,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48341863-B27B-4B2A-9D16-2738324A3EAB}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" customWidth="1"/>
+    <col min="3" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1334,13 +1502,712 @@
         <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2">
+        <v>32.4</v>
+      </c>
+      <c r="E2">
+        <v>14.9</v>
+      </c>
+      <c r="F2">
+        <v>3.9</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DC8848-191B-42B2-8890-F216156A1F30}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B40DD1-8598-4DD1-8579-BBC3335FDF4F}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCAAE7-6A9E-4EAB-AD8E-DD6BE22A8E92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/raw material survey data.xlsx
+++ b/raw material survey data.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon Paige\Desktop\LBJ Attribute analysis\LBJ attribute analysis repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CAE311-B636-4CA8-9EC5-4769BE7F9901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43898014-D1D6-4392-A1E2-E502C648D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2172" yWindow="1812" windowWidth="19560" windowHeight="8724" firstSheet="2" activeTab="3" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="21720" windowHeight="12960" firstSheet="1" activeTab="1" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sample measurements" sheetId="2" r:id="rId3"/>
-    <sheet name="Glossary" sheetId="6" r:id="rId4"/>
-    <sheet name="Sample color measurements" sheetId="5" r:id="rId5"/>
-    <sheet name="Heat treatment exp." sheetId="4" r:id="rId6"/>
+    <sheet name="Sample measurements" sheetId="2" r:id="rId2"/>
+    <sheet name="Sample measurement gloss" sheetId="1" r:id="rId3"/>
+    <sheet name="Sample color measurements" sheetId="5" r:id="rId4"/>
+    <sheet name="Sample color measurement glossa" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="125">
   <si>
     <t>Locality</t>
   </si>
@@ -389,6 +388,33 @@
   </si>
   <si>
     <t xml:space="preserve">in flakes where there was no difference in in the proximity to an interior across the flake, or no discernable color gradient, the general location of the color samples is described. </t>
+  </si>
+  <si>
+    <t>Length at longest dim</t>
+  </si>
+  <si>
+    <t>Width perpendicular to Length measurement midpoint</t>
+  </si>
+  <si>
+    <t>at midpoint</t>
+  </si>
+  <si>
+    <t>in grams</t>
+  </si>
+  <si>
+    <t>cobble id assigned to cobble</t>
+  </si>
+  <si>
+    <t>Localidty ID</t>
+  </si>
+  <si>
+    <t>Locality ID</t>
+  </si>
+  <si>
+    <t>Yes (nodule not complete)</t>
+  </si>
+  <si>
+    <t>no (nodule is complete)</t>
   </si>
 </sst>
 </file>
@@ -746,570 +772,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70794D5-8754-4185-8149-19A4560E35EF}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2.1</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2">
         <v>196</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>143</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>82</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2.42</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>133</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>90</v>
       </c>
-      <c r="P3">
-        <v>62</v>
-      </c>
       <c r="Q3">
+        <v>62</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>87</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>48</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>102</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>91.9</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>55.4</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>87</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>67.099999999999994</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>49</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>36</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>3.1</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>41</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>88.6</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>85</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>48</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>3.2</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>52</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
       </c>
       <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
         <v>18</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>23</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>84</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>78</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>22</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.2</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>3.3</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>41</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>58.2</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>38.200000000000003</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>27.2</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>3.4</v>
+      </c>
+      <c r="E9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>52</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>36.5</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>32.5</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>39.799999999999997</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>53</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>56</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>118</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>80</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>57</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>5.2</v>
+      </c>
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>57</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>48</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>124.3</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>115.7</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>47.6</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>5.3</v>
+      </c>
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>48</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>140</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>82</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>41</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13">
+        <v>5.4</v>
+      </c>
+      <c r="E13" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>57</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>41</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>170</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>103</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>53.4</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1.52</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>5.5</v>
+      </c>
+      <c r="E14" t="s">
         <v>61</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>57</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>48</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>113</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>81</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>64</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.74</v>
       </c>
     </row>
@@ -1319,167 +1388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3A4AC-DBC3-443D-80CC-6DC390B27326}">
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
-    <col min="4" max="12" width="16.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48341863-B27B-4B2A-9D16-2738324A3EAB}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,6 +1491,199 @@
       <c r="L2" t="s">
         <v>64</v>
       </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3A4AC-DBC3-443D-80CC-6DC390B27326}">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="13" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" t="s">
+        <v>117</v>
+      </c>
+      <c r="P2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1585,10 +1691,601 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B40DD1-8598-4DD1-8579-BBC3335FDF4F}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DC8848-191B-42B2-8890-F216156A1F30}">
   <dimension ref="A2:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1637,577 +2334,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B40DD1-8598-4DD1-8579-BBC3335FDF4F}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCAAE7-6A9E-4EAB-AD8E-DD6BE22A8E92}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/raw material survey data.xlsx
+++ b/raw material survey data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon Paige\Desktop\LBJ Attribute analysis\LBJ attribute analysis repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43898014-D1D6-4392-A1E2-E502C648D327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA234C5D-B5BA-4040-A509-07375D10DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="21720" windowHeight="12960" firstSheet="1" activeTab="1" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="234">
   <si>
     <t>Locality</t>
   </si>
@@ -405,9 +405,6 @@
     <t>cobble id assigned to cobble</t>
   </si>
   <si>
-    <t>Localidty ID</t>
-  </si>
-  <si>
     <t>Locality ID</t>
   </si>
   <si>
@@ -415,6 +412,336 @@
   </si>
   <si>
     <t>no (nodule is complete)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>g.0.1</t>
+  </si>
+  <si>
+    <t>N5/GLEY 1</t>
+  </si>
+  <si>
+    <t>N 4.25/</t>
+  </si>
+  <si>
+    <t>N 4/Gley 1</t>
+  </si>
+  <si>
+    <t>10R6/1</t>
+  </si>
+  <si>
+    <t>g.0.2</t>
+  </si>
+  <si>
+    <t>10yr8/1</t>
+  </si>
+  <si>
+    <t>N6/GLEY1</t>
+  </si>
+  <si>
+    <t>interior is still 8mm from surface</t>
+  </si>
+  <si>
+    <t>5GY6/1</t>
+  </si>
+  <si>
+    <t>g.0.3</t>
+  </si>
+  <si>
+    <t>n4.25/</t>
+  </si>
+  <si>
+    <t>10g5/1</t>
+  </si>
+  <si>
+    <t>n4.5/</t>
+  </si>
+  <si>
+    <t>no color gradient, this chunk is likely from interior</t>
+  </si>
+  <si>
+    <t>chnk</t>
+  </si>
+  <si>
+    <t>Van Horn area</t>
+  </si>
+  <si>
+    <t>vh.0.1</t>
+  </si>
+  <si>
+    <t>7.5r4/1</t>
+  </si>
+  <si>
+    <t>7.5rp4/2</t>
+  </si>
+  <si>
+    <t>5r5/2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>no color gradient visible</t>
+  </si>
+  <si>
+    <t>banded white and gray</t>
+  </si>
+  <si>
+    <t>vh.0.2</t>
+  </si>
+  <si>
+    <t>2.5y7/3</t>
+  </si>
+  <si>
+    <t>10yr7/3</t>
+  </si>
+  <si>
+    <t>2.5y/7/3</t>
+  </si>
+  <si>
+    <t>5y7/2</t>
+  </si>
+  <si>
+    <t>2.5y7/2</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">km 1. collected by hill country archaeological association. near km272. non cultural chert. </t>
+  </si>
+  <si>
+    <t>kimble county. KM272</t>
+  </si>
+  <si>
+    <t>yes irregular</t>
+  </si>
+  <si>
+    <t>fine to medium</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>crazing/potlid formation</t>
+  </si>
+  <si>
+    <t>nodule</t>
+  </si>
+  <si>
+    <t>interior</t>
+  </si>
+  <si>
+    <t>banded brown gray irregular</t>
+  </si>
+  <si>
+    <t>5yr4/1</t>
+  </si>
+  <si>
+    <t>2.5yr3/1</t>
+  </si>
+  <si>
+    <t>2.5y3/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aperture </t>
+  </si>
+  <si>
+    <t>2mm</t>
+  </si>
+  <si>
+    <t>5yr3/1</t>
+  </si>
+  <si>
+    <t>7.5yr3/1</t>
+  </si>
+  <si>
+    <t>7.5r2/2</t>
+  </si>
+  <si>
+    <t>10p3/1</t>
+  </si>
+  <si>
+    <t>10r3/1</t>
+  </si>
+  <si>
+    <t>Feels slightly smoother than lower fired samples from 6.1</t>
+  </si>
+  <si>
+    <t>Soak time 125c (mins)</t>
+  </si>
+  <si>
+    <t>soak time 225c (mins)</t>
+  </si>
+  <si>
+    <t>soak time 325c (mins)</t>
+  </si>
+  <si>
+    <t>soak time 425c (mins)</t>
+  </si>
+  <si>
+    <t>6.1.1</t>
+  </si>
+  <si>
+    <t>6.1.2</t>
+  </si>
+  <si>
+    <t>7.5r3/1</t>
+  </si>
+  <si>
+    <t>7.5yr4/1</t>
+  </si>
+  <si>
+    <t>2.5y4/1</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>7.5yr4/2</t>
+  </si>
+  <si>
+    <t>5r4/1</t>
+  </si>
+  <si>
+    <t>all close to surface 10mm.</t>
+  </si>
+  <si>
+    <t>6.1.4</t>
+  </si>
+  <si>
+    <t>vh.0.3</t>
+  </si>
+  <si>
+    <t>7.5yr4/6</t>
+  </si>
+  <si>
+    <t>7.5yr4/8</t>
+  </si>
+  <si>
+    <t>10yr4/6</t>
+  </si>
+  <si>
+    <t>medial</t>
+  </si>
+  <si>
+    <t>vh.0.4</t>
+  </si>
+  <si>
+    <t>10r4/2</t>
+  </si>
+  <si>
+    <t>10r4/1</t>
+  </si>
+  <si>
+    <t>7.5r4/2</t>
+  </si>
+  <si>
+    <t>Semi</t>
+  </si>
+  <si>
+    <t>41bx232</t>
+  </si>
+  <si>
+    <t>184-8</t>
+  </si>
+  <si>
+    <t>184-10</t>
+  </si>
+  <si>
+    <t>184-4</t>
+  </si>
+  <si>
+    <t>184-5</t>
+  </si>
+  <si>
+    <t>184-14</t>
+  </si>
+  <si>
+    <t>184-15</t>
+  </si>
+  <si>
+    <t>184-7</t>
+  </si>
+  <si>
+    <t>184-16</t>
+  </si>
+  <si>
+    <t>184-6</t>
+  </si>
+  <si>
+    <t>184-13</t>
+  </si>
+  <si>
+    <t>184-9</t>
+  </si>
+  <si>
+    <t>184-11</t>
+  </si>
+  <si>
+    <t>184-12</t>
+  </si>
+  <si>
+    <t>184-17</t>
+  </si>
+  <si>
+    <t>184-3</t>
+  </si>
+  <si>
+    <t>184-2</t>
+  </si>
+  <si>
+    <t>Debitage</t>
+  </si>
+  <si>
+    <t>2.5yr 5/1</t>
+  </si>
+  <si>
+    <t>7.5yr 5/2</t>
+  </si>
+  <si>
+    <t>5y4/1</t>
+  </si>
+  <si>
+    <t>5r5/3</t>
+  </si>
+  <si>
+    <t>5yr4/3</t>
+  </si>
+  <si>
+    <t>2.5yr4/2</t>
+  </si>
+  <si>
+    <t>5r4/2</t>
+  </si>
+  <si>
+    <t>7.5yr5/3</t>
+  </si>
+  <si>
+    <t>2.5rp5/2</t>
+  </si>
+  <si>
+    <t>7.5p5/2</t>
+  </si>
+  <si>
+    <t>2.5rp4/4</t>
+  </si>
+  <si>
+    <t>gley 1</t>
+  </si>
+  <si>
+    <t>10yr6/3</t>
+  </si>
+  <si>
+    <t>5yr5/2</t>
   </si>
 </sst>
 </file>
@@ -456,8 +783,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70794D5-8754-4185-8149-19A4560E35EF}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,6 +1712,53 @@
         <v>0.74</v>
       </c>
     </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15">
+        <v>6.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>161</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="R15">
+        <v>1.41</v>
+      </c>
+      <c r="T15" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1391,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48341863-B27B-4B2A-9D16-2738324A3EAB}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1904,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1583,7 +1960,7 @@
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1624,7 +2001,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1692,587 +2069,5271 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B40DD1-8598-4DD1-8579-BBC3335FDF4F}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I88" sqref="F88:I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>97</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>97</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
       <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>90</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>97</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
       <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
         <v>97</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
       <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
         <v>97</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
       <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" t="s">
+        <v>147</v>
+      </c>
+      <c r="N7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
       <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
       <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>99</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>147</v>
+      </c>
+      <c r="L9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
         <v>97</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
         <v>92</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>91</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
         <v>97</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
       <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
         <v>100</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
         <v>97</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
       <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
         <v>78</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>97</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
       <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
         <v>97</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
       <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
         <v>97</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
       <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
         <v>97</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>104</v>
       </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
       <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
         <v>107</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
       <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
         <v>108</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
       <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
         <v>97</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>109</v>
       </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
       <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
         <v>111</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
         <v>97</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
       <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" t="s">
         <v>16</v>
       </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
         <v>97</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
         <v>109</v>
       </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
       <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>111</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
         <v>97</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
         <v>109</v>
       </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
       <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
         <v>97</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>109</v>
       </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
       <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
         <v>112</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
         <v>97</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>114</v>
+      </c>
+      <c r="K25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" t="s">
+        <v>147</v>
+      </c>
+      <c r="N26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" t="s">
+        <v>147</v>
+      </c>
+      <c r="L27" t="s">
+        <v>147</v>
+      </c>
+      <c r="M27" t="s">
+        <v>147</v>
+      </c>
+      <c r="N27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" t="s">
+        <v>147</v>
+      </c>
+      <c r="M28" t="s">
+        <v>147</v>
+      </c>
+      <c r="N28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+      <c r="L29" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" t="s">
+        <v>147</v>
+      </c>
+      <c r="N30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" t="s">
+        <v>147</v>
+      </c>
+      <c r="M31" t="s">
+        <v>147</v>
+      </c>
+      <c r="N31" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" t="s">
+        <v>134</v>
+      </c>
+      <c r="K32" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" t="s">
+        <v>147</v>
+      </c>
+      <c r="N32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" t="s">
+        <v>134</v>
+      </c>
+      <c r="K33" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" t="s">
+        <v>147</v>
+      </c>
+      <c r="N33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I34" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" t="s">
+        <v>147</v>
+      </c>
+      <c r="M34" t="s">
+        <v>147</v>
+      </c>
+      <c r="N34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>97</v>
+      </c>
+      <c r="I35" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" t="s">
+        <v>147</v>
+      </c>
+      <c r="L35" t="s">
+        <v>147</v>
+      </c>
+      <c r="M35" t="s">
+        <v>147</v>
+      </c>
+      <c r="N35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" t="s">
+        <v>147</v>
+      </c>
+      <c r="L36" t="s">
+        <v>147</v>
+      </c>
+      <c r="M36" t="s">
+        <v>147</v>
+      </c>
+      <c r="N36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K37" t="s">
+        <v>147</v>
+      </c>
+      <c r="L37" t="s">
+        <v>147</v>
+      </c>
+      <c r="M37" t="s">
+        <v>147</v>
+      </c>
+      <c r="N37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>171</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" t="s">
+        <v>114</v>
+      </c>
+      <c r="J38" t="s">
+        <v>149</v>
+      </c>
+      <c r="K38" t="s">
+        <v>147</v>
+      </c>
+      <c r="L38" t="s">
+        <v>147</v>
+      </c>
+      <c r="M38" t="s">
+        <v>147</v>
+      </c>
+      <c r="N38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" t="s">
+        <v>149</v>
+      </c>
+      <c r="K39" t="s">
+        <v>147</v>
+      </c>
+      <c r="L39" t="s">
+        <v>147</v>
+      </c>
+      <c r="M39" t="s">
+        <v>147</v>
+      </c>
+      <c r="N39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>149</v>
+      </c>
+      <c r="K40" t="s">
+        <v>147</v>
+      </c>
+      <c r="L40" t="s">
+        <v>147</v>
+      </c>
+      <c r="M40" t="s">
+        <v>147</v>
+      </c>
+      <c r="N40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" t="s">
+        <v>114</v>
+      </c>
+      <c r="J41" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" t="s">
+        <v>147</v>
+      </c>
+      <c r="L41" t="s">
+        <v>147</v>
+      </c>
+      <c r="M41" t="s">
+        <v>147</v>
+      </c>
+      <c r="N41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" t="s">
+        <v>147</v>
+      </c>
+      <c r="L42" t="s">
+        <v>147</v>
+      </c>
+      <c r="M42" t="s">
+        <v>147</v>
+      </c>
+      <c r="N42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" t="s">
+        <v>148</v>
+      </c>
+      <c r="J43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" t="s">
+        <v>147</v>
+      </c>
+      <c r="L43" t="s">
+        <v>147</v>
+      </c>
+      <c r="M43" t="s">
+        <v>147</v>
+      </c>
+      <c r="N43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" t="s">
+        <v>147</v>
+      </c>
+      <c r="L44" t="s">
+        <v>147</v>
+      </c>
+      <c r="M44" t="s">
+        <v>147</v>
+      </c>
+      <c r="N44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" t="s">
+        <v>150</v>
+      </c>
+      <c r="K45" t="s">
+        <v>147</v>
+      </c>
+      <c r="L45" t="s">
+        <v>147</v>
+      </c>
+      <c r="M45" t="s">
+        <v>147</v>
+      </c>
+      <c r="N45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46">
+        <v>6.1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" t="s">
+        <v>166</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47">
+        <v>6.1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>201</v>
+      </c>
+      <c r="I47" t="s">
+        <v>165</v>
+      </c>
+      <c r="J47" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48">
+        <v>6.1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>201</v>
+      </c>
+      <c r="I48" t="s">
+        <v>165</v>
+      </c>
+      <c r="J48" t="s">
+        <v>166</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49">
+        <v>6.1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" t="s">
+        <v>171</v>
+      </c>
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" t="s">
+        <v>166</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50">
+        <v>6.1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>201</v>
+      </c>
+      <c r="I50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51">
+        <v>6.1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>201</v>
+      </c>
+      <c r="I51" t="s">
+        <v>165</v>
+      </c>
+      <c r="J51" t="s">
+        <v>166</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52">
+        <v>6.1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" t="s">
+        <v>94</v>
+      </c>
+      <c r="J52" t="s">
+        <v>166</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53">
+        <v>6.1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" t="s">
+        <v>166</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54">
+        <v>6.1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55">
+        <v>6.1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>172</v>
+      </c>
+      <c r="E55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>201</v>
+      </c>
+      <c r="I55" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>173</v>
+      </c>
+      <c r="E56" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>201</v>
+      </c>
+      <c r="I56" t="s">
+        <v>94</v>
+      </c>
+      <c r="J56" t="s">
+        <v>177</v>
+      </c>
+      <c r="K56">
+        <v>120</v>
+      </c>
+      <c r="L56">
+        <v>120</v>
+      </c>
+      <c r="M56">
+        <v>120</v>
+      </c>
+      <c r="N56">
+        <v>120</v>
+      </c>
+      <c r="O56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>201</v>
+      </c>
+      <c r="I57" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" t="s">
+        <v>177</v>
+      </c>
+      <c r="K57">
+        <v>120</v>
+      </c>
+      <c r="L57">
+        <v>120</v>
+      </c>
+      <c r="M57">
+        <v>120</v>
+      </c>
+      <c r="N57">
+        <v>120</v>
+      </c>
+      <c r="O57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" t="s">
+        <v>177</v>
+      </c>
+      <c r="K58">
+        <v>120</v>
+      </c>
+      <c r="L58">
+        <v>120</v>
+      </c>
+      <c r="M58">
+        <v>120</v>
+      </c>
+      <c r="N58">
+        <v>120</v>
+      </c>
+      <c r="O58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>201</v>
+      </c>
+      <c r="I59" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" t="s">
+        <v>177</v>
+      </c>
+      <c r="K59">
+        <v>120</v>
+      </c>
+      <c r="L59">
+        <v>120</v>
+      </c>
+      <c r="M59">
+        <v>120</v>
+      </c>
+      <c r="N59">
+        <v>120</v>
+      </c>
+      <c r="O59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>201</v>
+      </c>
+      <c r="I60" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" t="s">
+        <v>177</v>
+      </c>
+      <c r="K60">
+        <v>120</v>
+      </c>
+      <c r="L60">
+        <v>120</v>
+      </c>
+      <c r="M60">
+        <v>120</v>
+      </c>
+      <c r="N60">
+        <v>120</v>
+      </c>
+      <c r="O60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>201</v>
+      </c>
+      <c r="I61" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" t="s">
+        <v>177</v>
+      </c>
+      <c r="K61">
+        <v>120</v>
+      </c>
+      <c r="L61">
+        <v>120</v>
+      </c>
+      <c r="M61">
+        <v>120</v>
+      </c>
+      <c r="N61">
+        <v>120</v>
+      </c>
+      <c r="O61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>201</v>
+      </c>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62">
+        <v>120</v>
+      </c>
+      <c r="L62">
+        <v>120</v>
+      </c>
+      <c r="M62">
+        <v>120</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>201</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63">
+        <v>120</v>
+      </c>
+      <c r="L63">
+        <v>120</v>
+      </c>
+      <c r="M63">
+        <v>120</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>201</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64">
+        <v>120</v>
+      </c>
+      <c r="L64">
+        <v>120</v>
+      </c>
+      <c r="M64">
+        <v>120</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" t="s">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>201</v>
+      </c>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65">
+        <v>120</v>
+      </c>
+      <c r="L65">
+        <v>120</v>
+      </c>
+      <c r="M65">
+        <v>120</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>201</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66">
+        <v>120</v>
+      </c>
+      <c r="L66">
+        <v>120</v>
+      </c>
+      <c r="M66">
+        <v>120</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" t="s">
+        <v>171</v>
+      </c>
+      <c r="F67" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>201</v>
+      </c>
+      <c r="I67" t="s">
+        <v>113</v>
+      </c>
+      <c r="J67" t="s">
+        <v>190</v>
+      </c>
+      <c r="K67">
+        <v>120</v>
+      </c>
+      <c r="L67">
+        <v>120</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>201</v>
+      </c>
+      <c r="I68" t="s">
+        <v>113</v>
+      </c>
+      <c r="J68" t="s">
+        <v>190</v>
+      </c>
+      <c r="K68">
+        <v>120</v>
+      </c>
+      <c r="L68">
+        <v>120</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>201</v>
+      </c>
+      <c r="I69" t="s">
+        <v>114</v>
+      </c>
+      <c r="J69" t="s">
+        <v>190</v>
+      </c>
+      <c r="K69">
+        <v>120</v>
+      </c>
+      <c r="L69">
+        <v>120</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" t="s">
+        <v>189</v>
+      </c>
+      <c r="E70" t="s">
+        <v>171</v>
+      </c>
+      <c r="F70" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>201</v>
+      </c>
+      <c r="I70" t="s">
+        <v>114</v>
+      </c>
+      <c r="J70" t="s">
+        <v>190</v>
+      </c>
+      <c r="K70">
+        <v>120</v>
+      </c>
+      <c r="L70">
+        <v>120</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>167</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>201</v>
+      </c>
+      <c r="I71" t="s">
+        <v>113</v>
+      </c>
+      <c r="J71" t="s">
+        <v>190</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+      <c r="J72" t="s">
+        <v>190</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" t="s">
+        <v>171</v>
+      </c>
+      <c r="F73" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>201</v>
+      </c>
+      <c r="I73" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" t="s">
+        <v>190</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>191</v>
+      </c>
+      <c r="C74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>171</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" t="s">
+        <v>114</v>
+      </c>
+      <c r="J74" t="s">
+        <v>190</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E75" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" t="s">
+        <v>114</v>
+      </c>
+      <c r="J75" t="s">
+        <v>190</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" t="s">
+        <v>147</v>
+      </c>
+      <c r="L76" t="s">
+        <v>147</v>
+      </c>
+      <c r="M76" t="s">
+        <v>147</v>
+      </c>
+      <c r="N76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+      <c r="K77" t="s">
+        <v>147</v>
+      </c>
+      <c r="L77" t="s">
+        <v>147</v>
+      </c>
+      <c r="M77" t="s">
+        <v>147</v>
+      </c>
+      <c r="N77" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" t="s">
+        <v>196</v>
+      </c>
+      <c r="K78" t="s">
+        <v>147</v>
+      </c>
+      <c r="L78" t="s">
+        <v>147</v>
+      </c>
+      <c r="M78" t="s">
+        <v>147</v>
+      </c>
+      <c r="N78" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>142</v>
+      </c>
+      <c r="B79" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+      <c r="K79" t="s">
+        <v>147</v>
+      </c>
+      <c r="L79" t="s">
+        <v>147</v>
+      </c>
+      <c r="M79" t="s">
+        <v>147</v>
+      </c>
+      <c r="N79" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" t="s">
+        <v>171</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" t="s">
+        <v>113</v>
+      </c>
+      <c r="K80" t="s">
+        <v>147</v>
+      </c>
+      <c r="L80" t="s">
+        <v>147</v>
+      </c>
+      <c r="M80" t="s">
+        <v>147</v>
+      </c>
+      <c r="N80" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" t="s">
+        <v>193</v>
+      </c>
+      <c r="E81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" t="s">
+        <v>113</v>
+      </c>
+      <c r="K81" t="s">
+        <v>147</v>
+      </c>
+      <c r="L81" t="s">
+        <v>147</v>
+      </c>
+      <c r="M81" t="s">
+        <v>147</v>
+      </c>
+      <c r="N81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" t="s">
+        <v>171</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s">
+        <v>97</v>
+      </c>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+      <c r="K82" t="s">
+        <v>147</v>
+      </c>
+      <c r="L82" t="s">
+        <v>147</v>
+      </c>
+      <c r="M82" t="s">
+        <v>147</v>
+      </c>
+      <c r="N82" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+      <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" t="s">
+        <v>171</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
+        <v>97</v>
+      </c>
+      <c r="I83" t="s">
+        <v>113</v>
+      </c>
+      <c r="K83" t="s">
+        <v>147</v>
+      </c>
+      <c r="L83" t="s">
+        <v>147</v>
+      </c>
+      <c r="M83" t="s">
+        <v>147</v>
+      </c>
+      <c r="N83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>199</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>97</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+      <c r="K84" t="s">
+        <v>147</v>
+      </c>
+      <c r="L84" t="s">
+        <v>147</v>
+      </c>
+      <c r="M84" t="s">
+        <v>147</v>
+      </c>
+      <c r="N84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s">
+        <v>97</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+      <c r="K85" t="s">
+        <v>147</v>
+      </c>
+      <c r="L85" t="s">
+        <v>147</v>
+      </c>
+      <c r="M85" t="s">
+        <v>147</v>
+      </c>
+      <c r="N85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" t="s">
+        <v>171</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>37</v>
+      </c>
+      <c r="H86" t="s">
+        <v>97</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+      <c r="K86" t="s">
+        <v>147</v>
+      </c>
+      <c r="L86" t="s">
+        <v>147</v>
+      </c>
+      <c r="M86" t="s">
+        <v>147</v>
+      </c>
+      <c r="N86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" t="s">
+        <v>171</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s">
+        <v>97</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+      <c r="K87" t="s">
+        <v>147</v>
+      </c>
+      <c r="L87" t="s">
+        <v>147</v>
+      </c>
+      <c r="M87" t="s">
+        <v>147</v>
+      </c>
+      <c r="N87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" t="s">
+        <v>203</v>
+      </c>
+      <c r="C88" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" t="s">
+        <v>157</v>
+      </c>
+      <c r="H88" t="s">
+        <v>157</v>
+      </c>
+      <c r="I88" t="s">
+        <v>157</v>
+      </c>
+      <c r="K88" t="s">
+        <v>147</v>
+      </c>
+      <c r="L88" t="s">
+        <v>147</v>
+      </c>
+      <c r="M88" t="s">
+        <v>147</v>
+      </c>
+      <c r="N88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B89" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" t="s">
+        <v>171</v>
+      </c>
+      <c r="F89" t="s">
+        <v>157</v>
+      </c>
+      <c r="G89" t="s">
+        <v>157</v>
+      </c>
+      <c r="H89" t="s">
+        <v>157</v>
+      </c>
+      <c r="I89" t="s">
+        <v>157</v>
+      </c>
+      <c r="K89" t="s">
+        <v>147</v>
+      </c>
+      <c r="L89" t="s">
+        <v>147</v>
+      </c>
+      <c r="M89" t="s">
+        <v>147</v>
+      </c>
+      <c r="N89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" t="s">
+        <v>171</v>
+      </c>
+      <c r="F90" t="s">
+        <v>157</v>
+      </c>
+      <c r="G90" t="s">
+        <v>157</v>
+      </c>
+      <c r="H90" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" t="s">
+        <v>157</v>
+      </c>
+      <c r="K90" t="s">
+        <v>147</v>
+      </c>
+      <c r="L90" t="s">
+        <v>147</v>
+      </c>
+      <c r="M90" t="s">
+        <v>147</v>
+      </c>
+      <c r="N90" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="s">
+        <v>221</v>
+      </c>
+      <c r="E91" t="s">
+        <v>171</v>
+      </c>
+      <c r="F91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G91" t="s">
+        <v>157</v>
+      </c>
+      <c r="H91" t="s">
+        <v>157</v>
+      </c>
+      <c r="I91" t="s">
+        <v>157</v>
+      </c>
+      <c r="K91" t="s">
+        <v>147</v>
+      </c>
+      <c r="L91" t="s">
+        <v>147</v>
+      </c>
+      <c r="M91" t="s">
+        <v>147</v>
+      </c>
+      <c r="N91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>202</v>
+      </c>
+      <c r="B92" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" t="s">
+        <v>219</v>
+      </c>
+      <c r="D92" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" t="s">
+        <v>171</v>
+      </c>
+      <c r="F92" t="s">
+        <v>157</v>
+      </c>
+      <c r="G92" t="s">
+        <v>157</v>
+      </c>
+      <c r="H92" t="s">
+        <v>157</v>
+      </c>
+      <c r="I92" t="s">
+        <v>157</v>
+      </c>
+      <c r="K92" t="s">
+        <v>147</v>
+      </c>
+      <c r="L92" t="s">
+        <v>147</v>
+      </c>
+      <c r="M92" t="s">
+        <v>147</v>
+      </c>
+      <c r="N92" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" t="s">
+        <v>171</v>
+      </c>
+      <c r="F93" t="s">
+        <v>157</v>
+      </c>
+      <c r="G93" t="s">
+        <v>157</v>
+      </c>
+      <c r="H93" t="s">
+        <v>157</v>
+      </c>
+      <c r="I93" t="s">
+        <v>157</v>
+      </c>
+      <c r="K93" t="s">
+        <v>147</v>
+      </c>
+      <c r="L93" t="s">
+        <v>147</v>
+      </c>
+      <c r="M93" t="s">
+        <v>147</v>
+      </c>
+      <c r="N93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" t="s">
+        <v>219</v>
+      </c>
+      <c r="D94" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" t="s">
+        <v>157</v>
+      </c>
+      <c r="G94" t="s">
+        <v>157</v>
+      </c>
+      <c r="H94" t="s">
+        <v>157</v>
+      </c>
+      <c r="I94" t="s">
+        <v>157</v>
+      </c>
+      <c r="K94" t="s">
+        <v>147</v>
+      </c>
+      <c r="L94" t="s">
+        <v>147</v>
+      </c>
+      <c r="M94" t="s">
+        <v>147</v>
+      </c>
+      <c r="N94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
+        <v>100</v>
+      </c>
+      <c r="E95" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" t="s">
+        <v>157</v>
+      </c>
+      <c r="G95" t="s">
+        <v>157</v>
+      </c>
+      <c r="H95" t="s">
+        <v>157</v>
+      </c>
+      <c r="I95" t="s">
+        <v>157</v>
+      </c>
+      <c r="K95" t="s">
+        <v>147</v>
+      </c>
+      <c r="L95" t="s">
+        <v>147</v>
+      </c>
+      <c r="M95" t="s">
+        <v>147</v>
+      </c>
+      <c r="N95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s">
+        <v>211</v>
+      </c>
+      <c r="C96" t="s">
+        <v>219</v>
+      </c>
+      <c r="D96" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" t="s">
+        <v>157</v>
+      </c>
+      <c r="G96" t="s">
+        <v>157</v>
+      </c>
+      <c r="H96" t="s">
+        <v>157</v>
+      </c>
+      <c r="I96" t="s">
+        <v>157</v>
+      </c>
+      <c r="K96" t="s">
+        <v>147</v>
+      </c>
+      <c r="L96" t="s">
+        <v>147</v>
+      </c>
+      <c r="M96" t="s">
+        <v>147</v>
+      </c>
+      <c r="N96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" t="s">
+        <v>219</v>
+      </c>
+      <c r="D97" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" t="s">
+        <v>171</v>
+      </c>
+      <c r="F97" t="s">
+        <v>157</v>
+      </c>
+      <c r="G97" t="s">
+        <v>157</v>
+      </c>
+      <c r="H97" t="s">
+        <v>157</v>
+      </c>
+      <c r="I97" t="s">
+        <v>157</v>
+      </c>
+      <c r="K97" t="s">
+        <v>147</v>
+      </c>
+      <c r="L97" t="s">
+        <v>147</v>
+      </c>
+      <c r="M97" t="s">
+        <v>147</v>
+      </c>
+      <c r="N97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" t="s">
+        <v>171</v>
+      </c>
+      <c r="F98" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" t="s">
+        <v>157</v>
+      </c>
+      <c r="H98" t="s">
+        <v>157</v>
+      </c>
+      <c r="I98" t="s">
+        <v>157</v>
+      </c>
+      <c r="K98" t="s">
+        <v>147</v>
+      </c>
+      <c r="L98" t="s">
+        <v>147</v>
+      </c>
+      <c r="M98" t="s">
+        <v>147</v>
+      </c>
+      <c r="N98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" t="s">
+        <v>110</v>
+      </c>
+      <c r="E99" t="s">
+        <v>171</v>
+      </c>
+      <c r="F99" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" t="s">
+        <v>157</v>
+      </c>
+      <c r="H99" t="s">
+        <v>157</v>
+      </c>
+      <c r="I99" t="s">
+        <v>157</v>
+      </c>
+      <c r="K99" t="s">
+        <v>147</v>
+      </c>
+      <c r="L99" t="s">
+        <v>147</v>
+      </c>
+      <c r="M99" t="s">
+        <v>147</v>
+      </c>
+      <c r="N99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" t="s">
+        <v>226</v>
+      </c>
+      <c r="E100" t="s">
+        <v>171</v>
+      </c>
+      <c r="F100" t="s">
+        <v>157</v>
+      </c>
+      <c r="G100" t="s">
+        <v>157</v>
+      </c>
+      <c r="H100" t="s">
+        <v>157</v>
+      </c>
+      <c r="I100" t="s">
+        <v>157</v>
+      </c>
+      <c r="K100" t="s">
+        <v>147</v>
+      </c>
+      <c r="L100" t="s">
+        <v>147</v>
+      </c>
+      <c r="M100" t="s">
+        <v>147</v>
+      </c>
+      <c r="N100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" t="s">
+        <v>224</v>
+      </c>
+      <c r="E101" t="s">
+        <v>171</v>
+      </c>
+      <c r="F101" t="s">
+        <v>157</v>
+      </c>
+      <c r="G101" t="s">
+        <v>157</v>
+      </c>
+      <c r="H101" t="s">
+        <v>157</v>
+      </c>
+      <c r="I101" t="s">
+        <v>157</v>
+      </c>
+      <c r="K101" t="s">
+        <v>147</v>
+      </c>
+      <c r="L101" t="s">
+        <v>147</v>
+      </c>
+      <c r="M101" t="s">
+        <v>147</v>
+      </c>
+      <c r="N101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" t="s">
+        <v>227</v>
+      </c>
+      <c r="E102" t="s">
+        <v>171</v>
+      </c>
+      <c r="F102" t="s">
+        <v>157</v>
+      </c>
+      <c r="G102" t="s">
+        <v>157</v>
+      </c>
+      <c r="H102" t="s">
+        <v>157</v>
+      </c>
+      <c r="I102" t="s">
+        <v>157</v>
+      </c>
+      <c r="K102" t="s">
+        <v>147</v>
+      </c>
+      <c r="L102" t="s">
+        <v>147</v>
+      </c>
+      <c r="M102" t="s">
+        <v>147</v>
+      </c>
+      <c r="N102" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>218</v>
+      </c>
+      <c r="C103" t="s">
+        <v>219</v>
+      </c>
+      <c r="D103" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" t="s">
+        <v>157</v>
+      </c>
+      <c r="G103" t="s">
+        <v>157</v>
+      </c>
+      <c r="H103" t="s">
+        <v>157</v>
+      </c>
+      <c r="I103" t="s">
+        <v>157</v>
+      </c>
+      <c r="K103" t="s">
+        <v>147</v>
+      </c>
+      <c r="L103" t="s">
+        <v>147</v>
+      </c>
+      <c r="M103" t="s">
+        <v>147</v>
+      </c>
+      <c r="N103" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" t="s">
+        <v>171</v>
+      </c>
+      <c r="F104" t="s">
+        <v>157</v>
+      </c>
+      <c r="G104" t="s">
+        <v>157</v>
+      </c>
+      <c r="H104" t="s">
+        <v>157</v>
+      </c>
+      <c r="I104" t="s">
+        <v>157</v>
+      </c>
+      <c r="K104" t="s">
+        <v>147</v>
+      </c>
+      <c r="L104" t="s">
+        <v>147</v>
+      </c>
+      <c r="M104" t="s">
+        <v>147</v>
+      </c>
+      <c r="N104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105">
+        <v>195</v>
+      </c>
+      <c r="C105" t="s">
+        <v>219</v>
+      </c>
+      <c r="D105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" t="s">
+        <v>171</v>
+      </c>
+      <c r="F105" t="s">
+        <v>157</v>
+      </c>
+      <c r="G105" t="s">
+        <v>157</v>
+      </c>
+      <c r="H105" t="s">
+        <v>157</v>
+      </c>
+      <c r="I105" t="s">
+        <v>157</v>
+      </c>
+      <c r="K105" t="s">
+        <v>147</v>
+      </c>
+      <c r="L105" t="s">
+        <v>147</v>
+      </c>
+      <c r="M105" t="s">
+        <v>147</v>
+      </c>
+      <c r="N105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106">
+        <v>208</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" t="s">
+        <v>230</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+      <c r="F106" t="s">
+        <v>157</v>
+      </c>
+      <c r="G106" t="s">
+        <v>157</v>
+      </c>
+      <c r="H106" t="s">
+        <v>157</v>
+      </c>
+      <c r="I106" t="s">
+        <v>157</v>
+      </c>
+      <c r="K106" t="s">
+        <v>147</v>
+      </c>
+      <c r="L106" t="s">
+        <v>147</v>
+      </c>
+      <c r="M106" t="s">
+        <v>147</v>
+      </c>
+      <c r="N106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" t="s">
+        <v>171</v>
+      </c>
+      <c r="F107" t="s">
+        <v>157</v>
+      </c>
+      <c r="G107" t="s">
+        <v>157</v>
+      </c>
+      <c r="H107" t="s">
+        <v>157</v>
+      </c>
+      <c r="I107" t="s">
+        <v>157</v>
+      </c>
+      <c r="K107" t="s">
+        <v>147</v>
+      </c>
+      <c r="L107" t="s">
+        <v>147</v>
+      </c>
+      <c r="M107" t="s">
+        <v>147</v>
+      </c>
+      <c r="N107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108">
+        <v>197</v>
+      </c>
+      <c r="C108" t="s">
+        <v>219</v>
+      </c>
+      <c r="D108" t="s">
+        <v>185</v>
+      </c>
+      <c r="E108" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" t="s">
+        <v>157</v>
+      </c>
+      <c r="G108" t="s">
+        <v>157</v>
+      </c>
+      <c r="H108" t="s">
+        <v>157</v>
+      </c>
+      <c r="I108" t="s">
+        <v>157</v>
+      </c>
+      <c r="K108" t="s">
+        <v>147</v>
+      </c>
+      <c r="L108" t="s">
+        <v>147</v>
+      </c>
+      <c r="M108" t="s">
+        <v>147</v>
+      </c>
+      <c r="N108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109">
+        <v>214</v>
+      </c>
+      <c r="C109" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" t="s">
+        <v>227</v>
+      </c>
+      <c r="E109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F109" t="s">
+        <v>157</v>
+      </c>
+      <c r="G109" t="s">
+        <v>157</v>
+      </c>
+      <c r="H109" t="s">
+        <v>157</v>
+      </c>
+      <c r="I109" t="s">
+        <v>157</v>
+      </c>
+      <c r="K109" t="s">
+        <v>147</v>
+      </c>
+      <c r="L109" t="s">
+        <v>147</v>
+      </c>
+      <c r="M109" t="s">
+        <v>147</v>
+      </c>
+      <c r="N109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110">
+        <v>232</v>
+      </c>
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E110" t="s">
+        <v>171</v>
+      </c>
+      <c r="F110" t="s">
+        <v>157</v>
+      </c>
+      <c r="G110" t="s">
+        <v>157</v>
+      </c>
+      <c r="H110" t="s">
+        <v>157</v>
+      </c>
+      <c r="I110" t="s">
+        <v>157</v>
+      </c>
+      <c r="K110" t="s">
+        <v>147</v>
+      </c>
+      <c r="L110" t="s">
+        <v>147</v>
+      </c>
+      <c r="M110" t="s">
+        <v>147</v>
+      </c>
+      <c r="N110" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>202</v>
+      </c>
+      <c r="B111">
+        <v>183</v>
+      </c>
+      <c r="C111" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" t="s">
+        <v>171</v>
+      </c>
+      <c r="F111" t="s">
+        <v>157</v>
+      </c>
+      <c r="G111" t="s">
+        <v>157</v>
+      </c>
+      <c r="H111" t="s">
+        <v>157</v>
+      </c>
+      <c r="I111" t="s">
+        <v>157</v>
+      </c>
+      <c r="K111" t="s">
+        <v>147</v>
+      </c>
+      <c r="L111" t="s">
+        <v>147</v>
+      </c>
+      <c r="M111" t="s">
+        <v>147</v>
+      </c>
+      <c r="N111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>202</v>
+      </c>
+      <c r="B112">
+        <v>213</v>
+      </c>
+      <c r="C112" t="s">
+        <v>219</v>
+      </c>
+      <c r="D112" t="s">
+        <v>222</v>
+      </c>
+      <c r="E112" t="s">
+        <v>171</v>
+      </c>
+      <c r="F112" t="s">
+        <v>157</v>
+      </c>
+      <c r="G112" t="s">
+        <v>157</v>
+      </c>
+      <c r="H112" t="s">
+        <v>157</v>
+      </c>
+      <c r="I112" t="s">
+        <v>157</v>
+      </c>
+      <c r="K112" t="s">
+        <v>147</v>
+      </c>
+      <c r="L112" t="s">
+        <v>147</v>
+      </c>
+      <c r="M112" t="s">
+        <v>147</v>
+      </c>
+      <c r="N112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113">
+        <v>192</v>
+      </c>
+      <c r="C113" t="s">
+        <v>219</v>
+      </c>
+      <c r="D113" t="s">
+        <v>78</v>
+      </c>
+      <c r="E113" t="s">
+        <v>171</v>
+      </c>
+      <c r="F113" t="s">
+        <v>157</v>
+      </c>
+      <c r="G113" t="s">
+        <v>157</v>
+      </c>
+      <c r="H113" t="s">
+        <v>157</v>
+      </c>
+      <c r="I113" t="s">
+        <v>157</v>
+      </c>
+      <c r="K113" t="s">
+        <v>147</v>
+      </c>
+      <c r="L113" t="s">
+        <v>147</v>
+      </c>
+      <c r="M113" t="s">
+        <v>147</v>
+      </c>
+      <c r="N113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114">
+        <v>185</v>
+      </c>
+      <c r="C114" t="s">
+        <v>219</v>
+      </c>
+      <c r="D114" t="s">
+        <v>78</v>
+      </c>
+      <c r="E114" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114" t="s">
+        <v>157</v>
+      </c>
+      <c r="G114" t="s">
+        <v>157</v>
+      </c>
+      <c r="H114" t="s">
+        <v>157</v>
+      </c>
+      <c r="I114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K114" t="s">
+        <v>147</v>
+      </c>
+      <c r="L114" t="s">
+        <v>147</v>
+      </c>
+      <c r="M114" t="s">
+        <v>147</v>
+      </c>
+      <c r="N114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" t="s">
+        <v>227</v>
+      </c>
+      <c r="E115" t="s">
+        <v>171</v>
+      </c>
+      <c r="F115" t="s">
+        <v>157</v>
+      </c>
+      <c r="G115" t="s">
+        <v>157</v>
+      </c>
+      <c r="H115" t="s">
+        <v>157</v>
+      </c>
+      <c r="I115" t="s">
+        <v>157</v>
+      </c>
+      <c r="K115" t="s">
+        <v>147</v>
+      </c>
+      <c r="L115" t="s">
+        <v>147</v>
+      </c>
+      <c r="M115" t="s">
+        <v>147</v>
+      </c>
+      <c r="N115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116">
+        <v>209</v>
+      </c>
+      <c r="C116" t="s">
+        <v>219</v>
+      </c>
+      <c r="D116" t="s">
+        <v>167</v>
+      </c>
+      <c r="E116" t="s">
+        <v>171</v>
+      </c>
+      <c r="F116" t="s">
+        <v>157</v>
+      </c>
+      <c r="G116" t="s">
+        <v>157</v>
+      </c>
+      <c r="H116" t="s">
+        <v>157</v>
+      </c>
+      <c r="I116" t="s">
+        <v>157</v>
+      </c>
+      <c r="K116" t="s">
+        <v>147</v>
+      </c>
+      <c r="L116" t="s">
+        <v>147</v>
+      </c>
+      <c r="M116" t="s">
+        <v>147</v>
+      </c>
+      <c r="N116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>202</v>
+      </c>
+      <c r="B117">
+        <v>216</v>
+      </c>
+      <c r="C117" t="s">
+        <v>219</v>
+      </c>
+      <c r="D117" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" t="s">
+        <v>171</v>
+      </c>
+      <c r="F117" t="s">
+        <v>157</v>
+      </c>
+      <c r="G117" t="s">
+        <v>157</v>
+      </c>
+      <c r="H117" t="s">
+        <v>157</v>
+      </c>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+      <c r="K117" t="s">
+        <v>147</v>
+      </c>
+      <c r="L117" t="s">
+        <v>147</v>
+      </c>
+      <c r="M117" t="s">
+        <v>147</v>
+      </c>
+      <c r="N117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>202</v>
+      </c>
+      <c r="B118">
+        <v>194</v>
+      </c>
+      <c r="C118" t="s">
+        <v>219</v>
+      </c>
+      <c r="D118" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" t="s">
+        <v>171</v>
+      </c>
+      <c r="F118" t="s">
+        <v>157</v>
+      </c>
+      <c r="G118" t="s">
+        <v>157</v>
+      </c>
+      <c r="H118" t="s">
+        <v>157</v>
+      </c>
+      <c r="I118" t="s">
+        <v>157</v>
+      </c>
+      <c r="K118" t="s">
+        <v>147</v>
+      </c>
+      <c r="L118" t="s">
+        <v>147</v>
+      </c>
+      <c r="M118" t="s">
+        <v>147</v>
+      </c>
+      <c r="N118" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119">
+        <v>206</v>
+      </c>
+      <c r="C119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" t="s">
+        <v>171</v>
+      </c>
+      <c r="F119" t="s">
+        <v>157</v>
+      </c>
+      <c r="G119" t="s">
+        <v>157</v>
+      </c>
+      <c r="H119" t="s">
+        <v>157</v>
+      </c>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+      <c r="K119" t="s">
+        <v>147</v>
+      </c>
+      <c r="L119" t="s">
+        <v>147</v>
+      </c>
+      <c r="M119" t="s">
+        <v>147</v>
+      </c>
+      <c r="N119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>202</v>
+      </c>
+      <c r="B120">
+        <v>191</v>
+      </c>
+      <c r="C120" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
+        <v>171</v>
+      </c>
+      <c r="F120" t="s">
+        <v>157</v>
+      </c>
+      <c r="G120" t="s">
+        <v>157</v>
+      </c>
+      <c r="H120" t="s">
+        <v>157</v>
+      </c>
+      <c r="I120" t="s">
+        <v>157</v>
+      </c>
+      <c r="K120" t="s">
+        <v>147</v>
+      </c>
+      <c r="L120" t="s">
+        <v>147</v>
+      </c>
+      <c r="M120" t="s">
+        <v>147</v>
+      </c>
+      <c r="N120" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121">
+        <v>204</v>
+      </c>
+      <c r="C121" t="s">
+        <v>219</v>
+      </c>
+      <c r="D121" t="s">
+        <v>227</v>
+      </c>
+      <c r="E121" t="s">
+        <v>171</v>
+      </c>
+      <c r="F121" t="s">
+        <v>157</v>
+      </c>
+      <c r="G121" t="s">
+        <v>157</v>
+      </c>
+      <c r="H121" t="s">
+        <v>157</v>
+      </c>
+      <c r="I121" t="s">
+        <v>157</v>
+      </c>
+      <c r="K121" t="s">
+        <v>147</v>
+      </c>
+      <c r="L121" t="s">
+        <v>147</v>
+      </c>
+      <c r="M121" t="s">
+        <v>147</v>
+      </c>
+      <c r="N121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>202</v>
+      </c>
+      <c r="B122">
+        <v>53</v>
+      </c>
+      <c r="C122" t="s">
+        <v>219</v>
+      </c>
+      <c r="D122" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" t="s">
+        <v>171</v>
+      </c>
+      <c r="F122" t="s">
+        <v>157</v>
+      </c>
+      <c r="G122" t="s">
+        <v>157</v>
+      </c>
+      <c r="H122" t="s">
+        <v>157</v>
+      </c>
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+      <c r="K122" t="s">
+        <v>147</v>
+      </c>
+      <c r="L122" t="s">
+        <v>147</v>
+      </c>
+      <c r="M122" t="s">
+        <v>147</v>
+      </c>
+      <c r="N122" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>202</v>
+      </c>
+      <c r="B123">
+        <v>215</v>
+      </c>
+      <c r="C123" t="s">
+        <v>219</v>
+      </c>
+      <c r="D123" t="s">
+        <v>233</v>
+      </c>
+      <c r="E123" t="s">
+        <v>171</v>
+      </c>
+      <c r="F123" t="s">
+        <v>157</v>
+      </c>
+      <c r="G123" t="s">
+        <v>157</v>
+      </c>
+      <c r="H123" t="s">
+        <v>157</v>
+      </c>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+      <c r="K123" t="s">
+        <v>147</v>
+      </c>
+      <c r="L123" t="s">
+        <v>147</v>
+      </c>
+      <c r="M123" t="s">
+        <v>147</v>
+      </c>
+      <c r="N123" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/raw material survey data.xlsx
+++ b/raw material survey data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon Paige\Desktop\LBJ Attribute analysis\LBJ attribute analysis repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\CAR\COMMON\@NAMES\Jon\LBJ-attribute-analysis-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA234C5D-B5BA-4040-A509-07375D10DBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C17FC93-4841-46BD-B139-8A200AA78E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
+    <workbookView xWindow="-27720" yWindow="-1200" windowWidth="21990" windowHeight="13665" activeTab="3" xr2:uid="{69B49FDD-EDF3-439C-8B9D-6B0CC6E4D670}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -31,8 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -300,9 +298,6 @@
     <t xml:space="preserve">the third number is the number assigned to a flake taken from that cobble, or a chunk/core remaining after reduction. </t>
   </si>
   <si>
-    <t>Munsell estimate</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -742,6 +737,9 @@
   </si>
   <si>
     <t>5yr5/2</t>
+  </si>
+  <si>
+    <t>Munsell</t>
   </si>
 </sst>
 </file>
@@ -1108,18 +1106,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1176,7 +1174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1232,7 +1230,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1270,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1381,7 +1379,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1440,7 +1438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1478,7 +1476,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1519,7 +1517,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1633,7 +1631,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1674,7 +1672,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1720,13 +1718,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15">
         <v>6.1</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1735,7 +1733,7 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
@@ -1747,16 +1745,16 @@
         <v>23</v>
       </c>
       <c r="M15" t="s">
+        <v>160</v>
+      </c>
+      <c r="N15" t="s">
         <v>161</v>
-      </c>
-      <c r="N15" t="s">
-        <v>162</v>
       </c>
       <c r="R15">
         <v>1.41</v>
       </c>
       <c r="T15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1772,16 +1770,16 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.2000000000000002</v>
       </c>
@@ -1894,17 +1892,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="13" width="16.33203125" customWidth="1"/>
+    <col min="1" max="2" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="13" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1955,12 +1953,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -1987,21 +1985,21 @@
         <v>12</v>
       </c>
       <c r="N2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O2" t="s">
         <v>116</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>117</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2028,7 +2026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>41</v>
       </c>
@@ -2072,15 +2070,15 @@
   <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="F88:I123"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,43 +2089,43 @@
         <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2138,10 +2136,10 @@
         <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -2150,25 +2148,25 @@
         <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2179,10 +2177,10 @@
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -2191,25 +2189,25 @@
         <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2220,10 +2218,10 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -2232,25 +2230,25 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2261,10 +2259,10 @@
         <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -2273,25 +2271,25 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2302,10 +2300,10 @@
         <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -2314,25 +2312,25 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2343,10 +2341,10 @@
         <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -2355,39 +2353,39 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -2396,39 +2394,39 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
@@ -2437,30 +2435,30 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>62</v>
@@ -2469,7 +2467,7 @@
         <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -2478,39 +2476,39 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
@@ -2519,39 +2517,39 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -2560,39 +2558,39 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -2601,30 +2599,30 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
@@ -2633,7 +2631,7 @@
         <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -2642,39 +2640,39 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>105</v>
-      </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -2683,39 +2681,39 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
         <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -2724,39 +2722,39 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -2765,39 +2763,39 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -2806,39 +2804,39 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -2847,39 +2845,39 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>110</v>
-      </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -2888,39 +2886,39 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -2929,39 +2927,39 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -2970,39 +2968,39 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -3011,39 +3009,39 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
       <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
-      </c>
       <c r="E24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
         <v>16</v>
@@ -3052,39 +3050,39 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
@@ -3093,39 +3091,39 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N25" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
         <v>126</v>
       </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -3134,39 +3132,39 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N26" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
         <v>125</v>
       </c>
-      <c r="B27" t="s">
-        <v>126</v>
-      </c>
       <c r="C27" t="s">
         <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -3175,39 +3173,39 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" t="s">
         <v>125</v>
       </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -3216,39 +3214,39 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" t="s">
         <v>125</v>
       </c>
-      <c r="B29" t="s">
-        <v>126</v>
-      </c>
       <c r="C29" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -3257,39 +3255,39 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" t="s">
         <v>125</v>
       </c>
-      <c r="B30" t="s">
-        <v>126</v>
-      </c>
       <c r="C30" t="s">
         <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -3298,39 +3296,39 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
         <v>131</v>
       </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>132</v>
-      </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -3339,39 +3337,39 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N31" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
@@ -3380,42 +3378,42 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s">
+        <v>133</v>
+      </c>
+      <c r="K32" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="K32" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" t="s">
-        <v>147</v>
-      </c>
-      <c r="N32" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" t="s">
-        <v>131</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>135</v>
-      </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -3424,42 +3422,42 @@
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
         <v>136</v>
       </c>
-      <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" t="s">
-        <v>137</v>
-      </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -3468,42 +3466,42 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L34" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" t="s">
+        <v>146</v>
+      </c>
+      <c r="N34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
         <v>140</v>
       </c>
-      <c r="K34" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" t="s">
-        <v>147</v>
-      </c>
-      <c r="N34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>141</v>
-      </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
@@ -3512,42 +3510,42 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J35" t="s">
+        <v>139</v>
+      </c>
+      <c r="K35" t="s">
+        <v>146</v>
+      </c>
+      <c r="L35" t="s">
+        <v>146</v>
+      </c>
+      <c r="M35" t="s">
+        <v>146</v>
+      </c>
+      <c r="N35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" t="s">
         <v>140</v>
       </c>
-      <c r="K35" t="s">
-        <v>147</v>
-      </c>
-      <c r="L35" t="s">
-        <v>147</v>
-      </c>
-      <c r="M35" t="s">
-        <v>147</v>
-      </c>
-      <c r="N35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c r="B36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
-      </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
@@ -3556,42 +3554,42 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
         <v>142</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>144</v>
-      </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
@@ -3600,42 +3598,42 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
         <v>142</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
         <v>143</v>
       </c>
-      <c r="C38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
       <c r="E38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -3644,42 +3642,42 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" t="s">
         <v>142</v>
       </c>
-      <c r="B39" t="s">
-        <v>143</v>
-      </c>
       <c r="C39" t="s">
         <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3688,42 +3686,42 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" t="s">
         <v>148</v>
       </c>
-      <c r="J39" t="s">
-        <v>149</v>
-      </c>
       <c r="K39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N39" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" t="s">
         <v>142</v>
       </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
       <c r="C40" t="s">
         <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -3732,42 +3730,42 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" t="s">
         <v>151</v>
       </c>
-      <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
-        <v>152</v>
-      </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3776,42 +3774,42 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J41" t="s">
+        <v>149</v>
+      </c>
+      <c r="K41" t="s">
+        <v>146</v>
+      </c>
+      <c r="L41" t="s">
+        <v>146</v>
+      </c>
+      <c r="M41" t="s">
+        <v>146</v>
+      </c>
+      <c r="N41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
         <v>150</v>
       </c>
-      <c r="K41" t="s">
-        <v>147</v>
-      </c>
-      <c r="L41" t="s">
-        <v>147</v>
-      </c>
-      <c r="M41" t="s">
-        <v>147</v>
-      </c>
-      <c r="N41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" t="s">
-        <v>151</v>
-      </c>
       <c r="C42" t="s">
         <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3820,42 +3818,42 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J42" t="s">
+        <v>149</v>
+      </c>
+      <c r="K42" t="s">
+        <v>146</v>
+      </c>
+      <c r="L42" t="s">
+        <v>146</v>
+      </c>
+      <c r="M42" t="s">
+        <v>146</v>
+      </c>
+      <c r="N42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" t="s">
         <v>150</v>
       </c>
-      <c r="K42" t="s">
-        <v>147</v>
-      </c>
-      <c r="L42" t="s">
-        <v>147</v>
-      </c>
-      <c r="M42" t="s">
-        <v>147</v>
-      </c>
-      <c r="N42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" t="s">
-        <v>151</v>
-      </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -3864,42 +3862,42 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J43" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43" t="s">
+        <v>146</v>
+      </c>
+      <c r="L43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M43" t="s">
+        <v>146</v>
+      </c>
+      <c r="N43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
         <v>150</v>
       </c>
-      <c r="K43" t="s">
-        <v>147</v>
-      </c>
-      <c r="L43" t="s">
-        <v>147</v>
-      </c>
-      <c r="M43" t="s">
-        <v>147</v>
-      </c>
-      <c r="N43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
       <c r="C44" t="s">
         <v>62</v>
       </c>
       <c r="D44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -3908,42 +3906,42 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J44" t="s">
+        <v>149</v>
+      </c>
+      <c r="K44" t="s">
+        <v>146</v>
+      </c>
+      <c r="L44" t="s">
+        <v>146</v>
+      </c>
+      <c r="M44" t="s">
+        <v>146</v>
+      </c>
+      <c r="N44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
         <v>150</v>
       </c>
-      <c r="K44" t="s">
-        <v>147</v>
-      </c>
-      <c r="L44" t="s">
-        <v>147</v>
-      </c>
-      <c r="M44" t="s">
-        <v>147</v>
-      </c>
-      <c r="N44" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45" t="s">
-        <v>151</v>
-      </c>
       <c r="C45" t="s">
         <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3952,42 +3950,42 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46">
         <v>6.1</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -3996,13 +3994,13 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I46" t="s">
+        <v>164</v>
+      </c>
+      <c r="J46" t="s">
         <v>165</v>
-      </c>
-      <c r="J46" t="s">
-        <v>166</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4020,21 +4018,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47">
         <v>6.1</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -4043,13 +4041,13 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I47" t="s">
+        <v>164</v>
+      </c>
+      <c r="J47" t="s">
         <v>165</v>
-      </c>
-      <c r="J47" t="s">
-        <v>166</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -4067,21 +4065,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B48">
         <v>6.1</v>
       </c>
       <c r="C48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
         <v>78</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -4090,13 +4088,13 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I48" t="s">
+        <v>164</v>
+      </c>
+      <c r="J48" t="s">
         <v>165</v>
-      </c>
-      <c r="J48" t="s">
-        <v>166</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -4114,21 +4112,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49">
         <v>6.1</v>
       </c>
       <c r="C49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -4137,13 +4135,13 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I49" t="s">
+        <v>164</v>
+      </c>
+      <c r="J49" t="s">
         <v>165</v>
-      </c>
-      <c r="J49" t="s">
-        <v>166</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -4161,21 +4159,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B50">
         <v>6.1</v>
       </c>
       <c r="C50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -4184,13 +4182,13 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I50" t="s">
+        <v>164</v>
+      </c>
+      <c r="J50" t="s">
         <v>165</v>
-      </c>
-      <c r="J50" t="s">
-        <v>166</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -4208,21 +4206,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B51">
         <v>6.1</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -4231,13 +4229,13 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I51" t="s">
+        <v>164</v>
+      </c>
+      <c r="J51" t="s">
         <v>165</v>
-      </c>
-      <c r="J51" t="s">
-        <v>166</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -4255,21 +4253,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52">
         <v>6.1</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -4278,13 +4276,13 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4302,21 +4300,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B53">
         <v>6.1</v>
       </c>
       <c r="C53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -4325,13 +4323,13 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -4349,21 +4347,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54">
         <v>6.1</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -4372,13 +4370,13 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -4396,21 +4394,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B55">
         <v>6.1</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
@@ -4419,13 +4417,13 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -4443,21 +4441,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
@@ -4466,13 +4464,13 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K56">
         <v>120</v>
@@ -4490,21 +4488,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
         <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -4513,13 +4511,13 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I57" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K57">
         <v>120</v>
@@ -4537,21 +4535,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
         <v>62</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -4560,13 +4558,13 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K58">
         <v>120</v>
@@ -4584,21 +4582,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4607,13 +4605,13 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K59">
         <v>120</v>
@@ -4631,21 +4629,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
         <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -4654,13 +4652,13 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K60">
         <v>120</v>
@@ -4678,21 +4676,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
         <v>62</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -4701,13 +4699,13 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K61">
         <v>120</v>
@@ -4725,21 +4723,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" t="s">
-        <v>184</v>
-      </c>
       <c r="E62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -4748,10 +4746,10 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K62">
         <v>120</v>
@@ -4769,21 +4767,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
         <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -4792,10 +4790,10 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K63">
         <v>120</v>
@@ -4813,21 +4811,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s">
         <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4836,10 +4834,10 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K64">
         <v>120</v>
@@ -4857,21 +4855,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -4880,10 +4878,10 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K65">
         <v>120</v>
@@ -4901,21 +4899,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
         <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4924,10 +4922,10 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K66">
         <v>120</v>
@@ -4945,21 +4943,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" t="s">
         <v>187</v>
       </c>
-      <c r="C67" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" t="s">
-        <v>188</v>
-      </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -4968,13 +4966,13 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K67">
         <v>120</v>
@@ -4992,21 +4990,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
         <v>187</v>
       </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>188</v>
-      </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -5015,13 +5013,13 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K68">
         <v>120</v>
@@ -5039,21 +5037,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C69" t="s">
         <v>62</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -5062,13 +5060,13 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K69">
         <v>120</v>
@@ -5086,21 +5084,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
         <v>62</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -5109,13 +5107,13 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K70">
         <v>120</v>
@@ -5133,21 +5131,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C71" t="s">
         <v>62</v>
       </c>
       <c r="D71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -5156,13 +5154,13 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5180,21 +5178,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C72" t="s">
         <v>62</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -5203,13 +5201,13 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -5227,12 +5225,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
         <v>62</v>
@@ -5241,7 +5239,7 @@
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -5250,13 +5248,13 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J73" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -5274,21 +5272,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
         <v>62</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -5297,13 +5295,13 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -5321,21 +5319,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
         <v>62</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -5344,13 +5342,13 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -5368,21 +5366,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
+        <v>191</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
         <v>192</v>
       </c>
-      <c r="C76" t="s">
-        <v>62</v>
-      </c>
-      <c r="D76" t="s">
-        <v>193</v>
-      </c>
       <c r="E76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -5391,39 +5389,39 @@
         <v>38</v>
       </c>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N76" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
         <v>62</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -5432,39 +5430,39 @@
         <v>38</v>
       </c>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N77" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C78" t="s">
         <v>62</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -5473,39 +5471,39 @@
         <v>38</v>
       </c>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N78" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
         <v>62</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -5514,39 +5512,39 @@
         <v>38</v>
       </c>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N79" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C80" t="s">
         <v>62</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -5555,39 +5553,39 @@
         <v>38</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N80" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" t="s">
         <v>192</v>
       </c>
-      <c r="C81" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" t="s">
-        <v>193</v>
-      </c>
       <c r="E81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -5596,39 +5594,39 @@
         <v>38</v>
       </c>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N81" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" t="s">
         <v>197</v>
       </c>
-      <c r="C82" t="s">
-        <v>62</v>
-      </c>
-      <c r="D82" t="s">
-        <v>198</v>
-      </c>
       <c r="E82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -5637,39 +5635,39 @@
         <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N82" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" t="s">
         <v>197</v>
       </c>
-      <c r="C83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" t="s">
-        <v>198</v>
-      </c>
       <c r="E83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
@@ -5678,39 +5676,39 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
         <v>62</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
@@ -5719,39 +5717,39 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N84" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
         <v>197</v>
       </c>
-      <c r="C85" t="s">
-        <v>62</v>
-      </c>
-      <c r="D85" t="s">
-        <v>198</v>
-      </c>
       <c r="E85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -5760,39 +5758,39 @@
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" t="s">
         <v>197</v>
       </c>
-      <c r="C86" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" t="s">
-        <v>198</v>
-      </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -5801,39 +5799,39 @@
         <v>37</v>
       </c>
       <c r="H86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N86" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
         <v>62</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -5842,1498 +5840,1498 @@
         <v>37</v>
       </c>
       <c r="H87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N87" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" t="s">
         <v>202</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" t="s">
+        <v>110</v>
+      </c>
+      <c r="E88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" t="s">
+        <v>156</v>
+      </c>
+      <c r="G88" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88" t="s">
+        <v>156</v>
+      </c>
+      <c r="I88" t="s">
+        <v>156</v>
+      </c>
+      <c r="K88" t="s">
+        <v>146</v>
+      </c>
+      <c r="L88" t="s">
+        <v>146</v>
+      </c>
+      <c r="M88" t="s">
+        <v>146</v>
+      </c>
+      <c r="N88" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" t="s">
         <v>203</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
+        <v>218</v>
+      </c>
+      <c r="D89" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
+        <v>156</v>
+      </c>
+      <c r="G89" t="s">
+        <v>156</v>
+      </c>
+      <c r="H89" t="s">
+        <v>156</v>
+      </c>
+      <c r="I89" t="s">
+        <v>156</v>
+      </c>
+      <c r="K89" t="s">
+        <v>146</v>
+      </c>
+      <c r="L89" t="s">
+        <v>146</v>
+      </c>
+      <c r="M89" t="s">
+        <v>146</v>
+      </c>
+      <c r="N89" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" t="s">
+        <v>218</v>
+      </c>
+      <c r="D90" t="s">
         <v>219</v>
       </c>
-      <c r="D88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" t="s">
-        <v>171</v>
-      </c>
-      <c r="F88" t="s">
-        <v>157</v>
-      </c>
-      <c r="G88" t="s">
-        <v>157</v>
-      </c>
-      <c r="H88" t="s">
-        <v>157</v>
-      </c>
-      <c r="I88" t="s">
-        <v>157</v>
-      </c>
-      <c r="K88" t="s">
-        <v>147</v>
-      </c>
-      <c r="L88" t="s">
-        <v>147</v>
-      </c>
-      <c r="M88" t="s">
-        <v>147</v>
-      </c>
-      <c r="N88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>202</v>
-      </c>
-      <c r="B89" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" t="s">
-        <v>219</v>
-      </c>
-      <c r="D89" t="s">
-        <v>186</v>
-      </c>
-      <c r="E89" t="s">
-        <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>157</v>
-      </c>
-      <c r="G89" t="s">
-        <v>157</v>
-      </c>
-      <c r="H89" t="s">
-        <v>157</v>
-      </c>
-      <c r="I89" t="s">
-        <v>157</v>
-      </c>
-      <c r="K89" t="s">
-        <v>147</v>
-      </c>
-      <c r="L89" t="s">
-        <v>147</v>
-      </c>
-      <c r="M89" t="s">
-        <v>147</v>
-      </c>
-      <c r="N89" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>202</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
+        <v>156</v>
+      </c>
+      <c r="G90" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" t="s">
+        <v>156</v>
+      </c>
+      <c r="I90" t="s">
+        <v>156</v>
+      </c>
+      <c r="K90" t="s">
+        <v>146</v>
+      </c>
+      <c r="L90" t="s">
+        <v>146</v>
+      </c>
+      <c r="M90" t="s">
+        <v>146</v>
+      </c>
+      <c r="N90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" t="s">
         <v>205</v>
       </c>
-      <c r="C90" t="s">
-        <v>219</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" t="s">
         <v>220</v>
       </c>
-      <c r="E90" t="s">
-        <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>157</v>
-      </c>
-      <c r="G90" t="s">
-        <v>157</v>
-      </c>
-      <c r="H90" t="s">
-        <v>157</v>
-      </c>
-      <c r="I90" t="s">
-        <v>157</v>
-      </c>
-      <c r="K90" t="s">
-        <v>147</v>
-      </c>
-      <c r="L90" t="s">
-        <v>147</v>
-      </c>
-      <c r="M90" t="s">
-        <v>147</v>
-      </c>
-      <c r="N90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
+        <v>156</v>
+      </c>
+      <c r="G91" t="s">
+        <v>156</v>
+      </c>
+      <c r="H91" t="s">
+        <v>156</v>
+      </c>
+      <c r="I91" t="s">
+        <v>156</v>
+      </c>
+      <c r="K91" t="s">
+        <v>146</v>
+      </c>
+      <c r="L91" t="s">
+        <v>146</v>
+      </c>
+      <c r="M91" t="s">
+        <v>146</v>
+      </c>
+      <c r="N91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" t="s">
         <v>206</v>
       </c>
-      <c r="C91" t="s">
-        <v>219</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C92" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" t="s">
+        <v>143</v>
+      </c>
+      <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
+        <v>156</v>
+      </c>
+      <c r="G92" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" t="s">
+        <v>156</v>
+      </c>
+      <c r="I92" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92" t="s">
+        <v>146</v>
+      </c>
+      <c r="L92" t="s">
+        <v>146</v>
+      </c>
+      <c r="M92" t="s">
+        <v>146</v>
+      </c>
+      <c r="N92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93" t="s">
+        <v>218</v>
+      </c>
+      <c r="D93" t="s">
         <v>221</v>
       </c>
-      <c r="E91" t="s">
-        <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>157</v>
-      </c>
-      <c r="G91" t="s">
-        <v>157</v>
-      </c>
-      <c r="H91" t="s">
-        <v>157</v>
-      </c>
-      <c r="I91" t="s">
-        <v>157</v>
-      </c>
-      <c r="K91" t="s">
-        <v>147</v>
-      </c>
-      <c r="L91" t="s">
-        <v>147</v>
-      </c>
-      <c r="M91" t="s">
-        <v>147</v>
-      </c>
-      <c r="N91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>202</v>
-      </c>
-      <c r="B92" t="s">
-        <v>207</v>
-      </c>
-      <c r="C92" t="s">
-        <v>219</v>
-      </c>
-      <c r="D92" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" t="s">
-        <v>171</v>
-      </c>
-      <c r="F92" t="s">
-        <v>157</v>
-      </c>
-      <c r="G92" t="s">
-        <v>157</v>
-      </c>
-      <c r="H92" t="s">
-        <v>157</v>
-      </c>
-      <c r="I92" t="s">
-        <v>157</v>
-      </c>
-      <c r="K92" t="s">
-        <v>147</v>
-      </c>
-      <c r="L92" t="s">
-        <v>147</v>
-      </c>
-      <c r="M92" t="s">
-        <v>147</v>
-      </c>
-      <c r="N92" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>202</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
+        <v>156</v>
+      </c>
+      <c r="G93" t="s">
+        <v>156</v>
+      </c>
+      <c r="H93" t="s">
+        <v>156</v>
+      </c>
+      <c r="I93" t="s">
+        <v>156</v>
+      </c>
+      <c r="K93" t="s">
+        <v>146</v>
+      </c>
+      <c r="L93" t="s">
+        <v>146</v>
+      </c>
+      <c r="M93" t="s">
+        <v>146</v>
+      </c>
+      <c r="N93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" t="s">
         <v>208</v>
       </c>
-      <c r="C93" t="s">
-        <v>219</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C94" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" t="s">
         <v>222</v>
       </c>
-      <c r="E93" t="s">
-        <v>171</v>
-      </c>
-      <c r="F93" t="s">
-        <v>157</v>
-      </c>
-      <c r="G93" t="s">
-        <v>157</v>
-      </c>
-      <c r="H93" t="s">
-        <v>157</v>
-      </c>
-      <c r="I93" t="s">
-        <v>157</v>
-      </c>
-      <c r="K93" t="s">
-        <v>147</v>
-      </c>
-      <c r="L93" t="s">
-        <v>147</v>
-      </c>
-      <c r="M93" t="s">
-        <v>147</v>
-      </c>
-      <c r="N93" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>202</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="E94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" t="s">
+        <v>156</v>
+      </c>
+      <c r="G94" t="s">
+        <v>156</v>
+      </c>
+      <c r="H94" t="s">
+        <v>156</v>
+      </c>
+      <c r="I94" t="s">
+        <v>156</v>
+      </c>
+      <c r="K94" t="s">
+        <v>146</v>
+      </c>
+      <c r="L94" t="s">
+        <v>146</v>
+      </c>
+      <c r="M94" t="s">
+        <v>146</v>
+      </c>
+      <c r="N94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" t="s">
         <v>209</v>
       </c>
-      <c r="C94" t="s">
-        <v>219</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" t="s">
+        <v>156</v>
+      </c>
+      <c r="G95" t="s">
+        <v>156</v>
+      </c>
+      <c r="H95" t="s">
+        <v>156</v>
+      </c>
+      <c r="I95" t="s">
+        <v>156</v>
+      </c>
+      <c r="K95" t="s">
+        <v>146</v>
+      </c>
+      <c r="L95" t="s">
+        <v>146</v>
+      </c>
+      <c r="M95" t="s">
+        <v>146</v>
+      </c>
+      <c r="N95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>201</v>
+      </c>
+      <c r="B96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" t="s">
+        <v>218</v>
+      </c>
+      <c r="D96" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" t="s">
+        <v>170</v>
+      </c>
+      <c r="F96" t="s">
+        <v>156</v>
+      </c>
+      <c r="G96" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96" t="s">
+        <v>156</v>
+      </c>
+      <c r="I96" t="s">
+        <v>156</v>
+      </c>
+      <c r="K96" t="s">
+        <v>146</v>
+      </c>
+      <c r="L96" t="s">
+        <v>146</v>
+      </c>
+      <c r="M96" t="s">
+        <v>146</v>
+      </c>
+      <c r="N96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>218</v>
+      </c>
+      <c r="D97" t="s">
         <v>223</v>
       </c>
-      <c r="E94" t="s">
-        <v>171</v>
-      </c>
-      <c r="F94" t="s">
-        <v>157</v>
-      </c>
-      <c r="G94" t="s">
-        <v>157</v>
-      </c>
-      <c r="H94" t="s">
-        <v>157</v>
-      </c>
-      <c r="I94" t="s">
-        <v>157</v>
-      </c>
-      <c r="K94" t="s">
-        <v>147</v>
-      </c>
-      <c r="L94" t="s">
-        <v>147</v>
-      </c>
-      <c r="M94" t="s">
-        <v>147</v>
-      </c>
-      <c r="N94" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>202</v>
-      </c>
-      <c r="B95" t="s">
-        <v>210</v>
-      </c>
-      <c r="C95" t="s">
-        <v>219</v>
-      </c>
-      <c r="D95" t="s">
-        <v>100</v>
-      </c>
-      <c r="E95" t="s">
-        <v>171</v>
-      </c>
-      <c r="F95" t="s">
-        <v>157</v>
-      </c>
-      <c r="G95" t="s">
-        <v>157</v>
-      </c>
-      <c r="H95" t="s">
-        <v>157</v>
-      </c>
-      <c r="I95" t="s">
-        <v>157</v>
-      </c>
-      <c r="K95" t="s">
-        <v>147</v>
-      </c>
-      <c r="L95" t="s">
-        <v>147</v>
-      </c>
-      <c r="M95" t="s">
-        <v>147</v>
-      </c>
-      <c r="N95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>202</v>
-      </c>
-      <c r="B96" t="s">
-        <v>211</v>
-      </c>
-      <c r="C96" t="s">
-        <v>219</v>
-      </c>
-      <c r="D96" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" t="s">
-        <v>171</v>
-      </c>
-      <c r="F96" t="s">
-        <v>157</v>
-      </c>
-      <c r="G96" t="s">
-        <v>157</v>
-      </c>
-      <c r="H96" t="s">
-        <v>157</v>
-      </c>
-      <c r="I96" t="s">
-        <v>157</v>
-      </c>
-      <c r="K96" t="s">
-        <v>147</v>
-      </c>
-      <c r="L96" t="s">
-        <v>147</v>
-      </c>
-      <c r="M96" t="s">
-        <v>147</v>
-      </c>
-      <c r="N96" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="E97" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" t="s">
+        <v>156</v>
+      </c>
+      <c r="G97" t="s">
+        <v>156</v>
+      </c>
+      <c r="H97" t="s">
+        <v>156</v>
+      </c>
+      <c r="I97" t="s">
+        <v>156</v>
+      </c>
+      <c r="K97" t="s">
+        <v>146</v>
+      </c>
+      <c r="L97" t="s">
+        <v>146</v>
+      </c>
+      <c r="M97" t="s">
+        <v>146</v>
+      </c>
+      <c r="N97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>201</v>
+      </c>
+      <c r="B98" t="s">
         <v>212</v>
       </c>
-      <c r="C97" t="s">
-        <v>219</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" t="s">
         <v>224</v>
       </c>
-      <c r="E97" t="s">
-        <v>171</v>
-      </c>
-      <c r="F97" t="s">
-        <v>157</v>
-      </c>
-      <c r="G97" t="s">
-        <v>157</v>
-      </c>
-      <c r="H97" t="s">
-        <v>157</v>
-      </c>
-      <c r="I97" t="s">
-        <v>157</v>
-      </c>
-      <c r="K97" t="s">
-        <v>147</v>
-      </c>
-      <c r="L97" t="s">
-        <v>147</v>
-      </c>
-      <c r="M97" t="s">
-        <v>147</v>
-      </c>
-      <c r="N97" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="E98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" t="s">
+        <v>156</v>
+      </c>
+      <c r="I98" t="s">
+        <v>156</v>
+      </c>
+      <c r="K98" t="s">
+        <v>146</v>
+      </c>
+      <c r="L98" t="s">
+        <v>146</v>
+      </c>
+      <c r="M98" t="s">
+        <v>146</v>
+      </c>
+      <c r="N98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+      <c r="B99" t="s">
         <v>213</v>
       </c>
-      <c r="C98" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C99" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" t="s">
+        <v>156</v>
+      </c>
+      <c r="I99" t="s">
+        <v>156</v>
+      </c>
+      <c r="K99" t="s">
+        <v>146</v>
+      </c>
+      <c r="L99" t="s">
+        <v>146</v>
+      </c>
+      <c r="M99" t="s">
+        <v>146</v>
+      </c>
+      <c r="N99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" t="s">
         <v>225</v>
       </c>
-      <c r="E98" t="s">
-        <v>171</v>
-      </c>
-      <c r="F98" t="s">
-        <v>157</v>
-      </c>
-      <c r="G98" t="s">
-        <v>157</v>
-      </c>
-      <c r="H98" t="s">
-        <v>157</v>
-      </c>
-      <c r="I98" t="s">
-        <v>157</v>
-      </c>
-      <c r="K98" t="s">
-        <v>147</v>
-      </c>
-      <c r="L98" t="s">
-        <v>147</v>
-      </c>
-      <c r="M98" t="s">
-        <v>147</v>
-      </c>
-      <c r="N98" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>202</v>
-      </c>
-      <c r="B99" t="s">
-        <v>214</v>
-      </c>
-      <c r="C99" t="s">
-        <v>219</v>
-      </c>
-      <c r="D99" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99" t="s">
-        <v>171</v>
-      </c>
-      <c r="F99" t="s">
-        <v>157</v>
-      </c>
-      <c r="G99" t="s">
-        <v>157</v>
-      </c>
-      <c r="H99" t="s">
-        <v>157</v>
-      </c>
-      <c r="I99" t="s">
-        <v>157</v>
-      </c>
-      <c r="K99" t="s">
-        <v>147</v>
-      </c>
-      <c r="L99" t="s">
-        <v>147</v>
-      </c>
-      <c r="M99" t="s">
-        <v>147</v>
-      </c>
-      <c r="N99" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="E100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G100" t="s">
+        <v>156</v>
+      </c>
+      <c r="H100" t="s">
+        <v>156</v>
+      </c>
+      <c r="I100" t="s">
+        <v>156</v>
+      </c>
+      <c r="K100" t="s">
+        <v>146</v>
+      </c>
+      <c r="L100" t="s">
+        <v>146</v>
+      </c>
+      <c r="M100" t="s">
+        <v>146</v>
+      </c>
+      <c r="N100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
         <v>215</v>
       </c>
-      <c r="C100" t="s">
-        <v>219</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C101" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" t="s">
+        <v>156</v>
+      </c>
+      <c r="G101" t="s">
+        <v>156</v>
+      </c>
+      <c r="H101" t="s">
+        <v>156</v>
+      </c>
+      <c r="I101" t="s">
+        <v>156</v>
+      </c>
+      <c r="K101" t="s">
+        <v>146</v>
+      </c>
+      <c r="L101" t="s">
+        <v>146</v>
+      </c>
+      <c r="M101" t="s">
+        <v>146</v>
+      </c>
+      <c r="N101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102" t="s">
+        <v>216</v>
+      </c>
+      <c r="C102" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" t="s">
         <v>226</v>
       </c>
-      <c r="E100" t="s">
-        <v>171</v>
-      </c>
-      <c r="F100" t="s">
-        <v>157</v>
-      </c>
-      <c r="G100" t="s">
-        <v>157</v>
-      </c>
-      <c r="H100" t="s">
-        <v>157</v>
-      </c>
-      <c r="I100" t="s">
-        <v>157</v>
-      </c>
-      <c r="K100" t="s">
-        <v>147</v>
-      </c>
-      <c r="L100" t="s">
-        <v>147</v>
-      </c>
-      <c r="M100" t="s">
-        <v>147</v>
-      </c>
-      <c r="N100" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>202</v>
-      </c>
-      <c r="B101" t="s">
-        <v>216</v>
-      </c>
-      <c r="C101" t="s">
-        <v>219</v>
-      </c>
-      <c r="D101" t="s">
-        <v>224</v>
-      </c>
-      <c r="E101" t="s">
-        <v>171</v>
-      </c>
-      <c r="F101" t="s">
-        <v>157</v>
-      </c>
-      <c r="G101" t="s">
-        <v>157</v>
-      </c>
-      <c r="H101" t="s">
-        <v>157</v>
-      </c>
-      <c r="I101" t="s">
-        <v>157</v>
-      </c>
-      <c r="K101" t="s">
-        <v>147</v>
-      </c>
-      <c r="L101" t="s">
-        <v>147</v>
-      </c>
-      <c r="M101" t="s">
-        <v>147</v>
-      </c>
-      <c r="N101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>202</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="E102" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" t="s">
+        <v>156</v>
+      </c>
+      <c r="G102" t="s">
+        <v>156</v>
+      </c>
+      <c r="H102" t="s">
+        <v>156</v>
+      </c>
+      <c r="I102" t="s">
+        <v>156</v>
+      </c>
+      <c r="K102" t="s">
+        <v>146</v>
+      </c>
+      <c r="L102" t="s">
+        <v>146</v>
+      </c>
+      <c r="M102" t="s">
+        <v>146</v>
+      </c>
+      <c r="N102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" t="s">
         <v>217</v>
       </c>
-      <c r="C102" t="s">
-        <v>219</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C103" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" t="s">
         <v>227</v>
       </c>
-      <c r="E102" t="s">
-        <v>171</v>
-      </c>
-      <c r="F102" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" t="s">
-        <v>157</v>
-      </c>
-      <c r="H102" t="s">
-        <v>157</v>
-      </c>
-      <c r="I102" t="s">
-        <v>157</v>
-      </c>
-      <c r="K102" t="s">
-        <v>147</v>
-      </c>
-      <c r="L102" t="s">
-        <v>147</v>
-      </c>
-      <c r="M102" t="s">
-        <v>147</v>
-      </c>
-      <c r="N102" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" t="s">
-        <v>218</v>
-      </c>
-      <c r="C103" t="s">
-        <v>219</v>
-      </c>
-      <c r="D103" t="s">
-        <v>228</v>
-      </c>
       <c r="E103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104">
         <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B105">
         <v>195</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N105" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B106">
         <v>208</v>
       </c>
       <c r="C106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N106" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107">
         <v>211</v>
       </c>
       <c r="C107" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B108">
         <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E108" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N108" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109">
         <v>214</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E109" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B110">
         <v>232</v>
       </c>
       <c r="C110" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I110" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B111">
         <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B112">
         <v>213</v>
       </c>
       <c r="C112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113">
         <v>192</v>
       </c>
       <c r="C113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D113" t="s">
         <v>78</v>
       </c>
       <c r="E113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I113" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B114">
         <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D114" t="s">
         <v>78</v>
       </c>
       <c r="E114" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I114" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B115">
         <v>199</v>
       </c>
       <c r="C115" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B116">
         <v>209</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E116" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B117">
         <v>216</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D117" t="s">
         <v>78</v>
       </c>
       <c r="E117" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N117" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B118">
         <v>194</v>
       </c>
       <c r="C118" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N118" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B119">
         <v>206</v>
       </c>
       <c r="C119" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E119" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B120">
         <v>191</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E120" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N120" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B121">
         <v>204</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D121" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E121" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B122">
         <v>53</v>
       </c>
       <c r="C122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D122" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N122" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B123">
         <v>215</v>
       </c>
       <c r="C123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D123" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7350,46 +7348,46 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
